--- a/downloaded_files/GENS120_Lecture-35036.xlsx
+++ b/downloaded_files/GENS120_Lecture-35036.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Sama ayman nabil abd el satar ali maklad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شهد وليد سيد محمود السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shahd Waleed Sayed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240326</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1409,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.3025805208</x:v>
+        <x:v>45919.6459590278</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1441,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9477770023</x:v>
+        <x:v>45918.3025805208</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1473,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4183795949</x:v>
+        <x:v>45914.9477770023</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1505,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4162042824</x:v>
+        <x:v>45907.4183795949</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1537,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45909.4162042824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9526247685</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45914.9526247685</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9591257755</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45914.9591257755</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4164435185</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4150851505</x:v>
+        <x:v>45909.4164435185</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.955603588</x:v>
+        <x:v>45909.4150851505</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.953675463</x:v>
+        <x:v>45914.955603588</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6659834491</x:v>
+        <x:v>45914.953675463</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.6659834491</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35036.xlsx
+++ b/downloaded_files/GENS120_Lecture-35036.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,6 +141,15 @@
     <x:t>Razan Megahed Raghib Al/Besra</x:t>
   </x:si>
   <x:si>
+    <x:t>1240059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رهف عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240310</x:t>
   </x:si>
   <x:si>
@@ -240,6 +249,15 @@
     <x:t>Omar Mohamed Hamed Sayed Abu-Taleb</x:t>
   </x:si>
   <x:si>
+    <x:t>1240403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>غزل يسرى عبداللطيف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ghazel </x:t>
+  </x:si>
+  <x:si>
     <x:t>1240346</x:t>
   </x:si>
   <x:si>
@@ -292,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammed Ali Zaher Mousa Elmeteni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمود احمد شكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mahmoud Ahmed shokry</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -515,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1290,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6656925926</x:v>
+        <x:v>45920.8959554398</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6652001505</x:v>
+        <x:v>45907.6656925926</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4159662384</x:v>
+        <x:v>45907.6652001505</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45909.4159662384</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.6459590278</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.3025805208</x:v>
+        <x:v>45919.6459590278</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9477770023</x:v>
+        <x:v>45918.3025805208</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4183795949</x:v>
+        <x:v>45914.9477770023</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4162042824</x:v>
+        <x:v>45907.4183795949</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45909.4162042824</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9526247685</x:v>
+        <x:v>45920.9397524653</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9591257755</x:v>
+        <x:v>45914.9526247685</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45914.9591257755</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45920.795412419</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4164435185</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4150851505</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.955603588</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.953675463</x:v>
+        <x:v>45909.4164435185</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6659834491</x:v>
+        <x:v>45909.4150851505</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45914.955603588</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45914.953675463</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6659834491</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2186,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2203,6 +2230,102 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45907.6660113079</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35036.xlsx
+++ b/downloaded_files/GENS120_Lecture-35036.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Nader Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم هانى مصطفى جوده عبدالرازق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Hany Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230261</x:t>
@@ -542,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2021,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45921.4842553588</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4164435185</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4150851505</x:v>
+        <x:v>45909.4164435185</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.955603588</x:v>
+        <x:v>45909.4150851505</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.953675463</x:v>
+        <x:v>45914.955603588</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6659834491</x:v>
+        <x:v>45914.953675463</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.6659834491</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6651545139</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2335,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6651545139</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35036.xlsx
+++ b/downloaded_files/GENS120_Lecture-35036.xlsx
@@ -942,7 +942,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45918.4373561343</x:v>
+        <x:v>45924.3622074074</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35036.xlsx
+++ b/downloaded_files/GENS120_Lecture-35036.xlsx
@@ -249,6 +249,15 @@
     <x:t>Omar Mohamed Hamed Sayed Abu-Taleb</x:t>
   </x:si>
   <x:si>
+    <x:t>1240116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو صبري عبداللطيف ابراهيم طه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amr sabry abdullatif ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240403</x:t>
   </x:si>
   <x:si>
@@ -382,15 +391,6 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Karim Adel Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام طارق احمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>1240162</x:t>
@@ -1710,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45920.9397524653</x:v>
+        <x:v>45927.4484715625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45920.9397524653</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9526247685</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45914.9526247685</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.9591257755</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45914.9591257755</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.795412419</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45920.795412419</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45921.4842553588</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45921.4842553588</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4164435185</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4150851505</x:v>
+        <x:v>45909.4164435185</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.955603588</x:v>
+        <x:v>45909.4150851505</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.953675463</x:v>
+        <x:v>45914.955603588</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35036.xlsx
+++ b/downloaded_files/GENS120_Lecture-35036.xlsx
@@ -159,6 +159,15 @@
     <x:t>rawda emad khairy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى علاء حسين الشافعى حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Alaa Hussein Elshafey</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240226</x:t>
   </x:si>
   <x:si>
@@ -265,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">ghazel </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فرح محمد عشري بخيت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farah Mohamed Ashry Bekhet</x:t>
   </x:si>
   <x:si>
     <x:t>1240181</x:t>
@@ -1390,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6652001505</x:v>
+        <x:v>45915.6087208333</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1422,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4159662384</x:v>
+        <x:v>45907.6652001505</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1454,7 +1454,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45909.4159662384</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1486,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.6459590278</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.3025805208</x:v>
+        <x:v>45919.6459590278</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9477770023</x:v>
+        <x:v>45918.3025805208</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4183795949</x:v>
+        <x:v>45914.9477770023</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4162042824</x:v>
+        <x:v>45907.4183795949</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45909.4162042824</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6846962616</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4484715625</x:v>
+        <x:v>45906.6846962616</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45920.9397524653</x:v>
+        <x:v>45927.4484715625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45920.9397524653</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.9526247685</x:v>
+        <x:v>45928.4957475694</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35036.xlsx
+++ b/downloaded_files/GENS120_Lecture-35036.xlsx
@@ -90,7 +90,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
